--- a/biology/Botanique/La_casa_de_las_flores/La_casa_de_las_flores.xlsx
+++ b/biology/Botanique/La_casa_de_las_flores/La_casa_de_las_flores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La casa de las flores est une série télévisée mexicaine en treize épisodes pour la saison 1, 9 épisodes pour la saison 2 et enfin 11 épisodes pour la saison 3 d’une durée d'environ 30 minutes, créée par Manolo Caro[1], et mise en ligne le 10 août 2018 sur la plateforme Netflix, y compris dans les pays francophones. Chaque épisode porte le nom d'une fleur, choisie pour ce qu'elle symbolise en lien avec le contenu de l'épisode.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La casa de las flores est une série télévisée mexicaine en treize épisodes pour la saison 1, 9 épisodes pour la saison 2 et enfin 11 épisodes pour la saison 3 d’une durée d'environ 30 minutes, créée par Manolo Caro, et mise en ligne le 10 août 2018 sur la plateforme Netflix, y compris dans les pays francophones. Chaque épisode porte le nom d'une fleur, choisie pour ce qu'elle symbolise en lien avec le contenu de l'épisode.
 La saison 3 est sortie le jeudi 23 avril 2020 sur la plateforme de streaming Netflix et est la saison finale de la série.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ernesto de la Mora s'apprête à célébrer son anniversaire, entouré de sa femme Virginia, de leurs enfants Paulina, Elena et Julián, déjà adultes, de leur petit-fils Bruno, et de leurs invités. Cette riche famille de fleuristes semble parfaite[2], mais Roberta, la maîtresse d'Ernesto, décide de se pendre dans le magasin, en laissant une lettre à Virginia. La famille avertit la police et parvient à gérer l'irruption d'un cadavre avec discrétion, mais les secrets commencent à se dévoiler. Avec Roberta, Ernesto a eu une fille, Micaela. Paulina aidait Roberta à gérer son cabaret de spectacles travestis, lui aussi nommé la casa de las flores. Elena arrive des États-Unis avec son fiancé Dominique, mais ses parents acceptent mal qu'elle veuille épouser un Afro-Américain. Julián, en couple avec Lucía, cache sa bisexualité, et sa relation de plusieurs années avec Diego, le conseiller financier de l'entreprise de fleurs[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ernesto de la Mora s'apprête à célébrer son anniversaire, entouré de sa femme Virginia, de leurs enfants Paulina, Elena et Julián, déjà adultes, de leur petit-fils Bruno, et de leurs invités. Cette riche famille de fleuristes semble parfaite, mais Roberta, la maîtresse d'Ernesto, décide de se pendre dans le magasin, en laissant une lettre à Virginia. La famille avertit la police et parvient à gérer l'irruption d'un cadavre avec discrétion, mais les secrets commencent à se dévoiler. Avec Roberta, Ernesto a eu une fille, Micaela. Paulina aidait Roberta à gérer son cabaret de spectacles travestis, lui aussi nommé la casa de las flores. Elena arrive des États-Unis avec son fiancé Dominique, mais ses parents acceptent mal qu'elle veuille épouser un Afro-Américain. Julián, en couple avec Lucía, cache sa bisexualité, et sa relation de plusieurs années avec Diego, le conseiller financier de l'entreprise de fleurs.
 </t>
         </is>
       </c>
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Personnages principaux
-Verónica Castro : Virginia de La Mora (saison 1)
+          <t>Personnages principaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Verónica Castro : Virginia de La Mora (saison 1)
 Cecilia Suárez : Paulina de La Mora
 Aislinn Derbez : Elena de La Mora
 Darío Yazbek Bernal : Julián de La Mora
@@ -564,52 +583,88 @@
 Eduardo Rosa : Alejandro "Alejo" Salvat (saison 2)
 Flavio Medina : Simón (saison 2)
 Loreto Peralta : Rosita (saison 2)
-Isela Vega : Victoria (saison 2), la mère de Virginia
-Personnages récurrents
-Alexa de Anda : Micaela Sánchez
+Isela Vega : Victoria (saison 2), la mère de Virginia</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>La_casa_de_las_flores</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_casa_de_las_flores</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Personnages récurrents</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Alexa de Anda : Micaela Sánchez
 Sawandi Wilson : Dominique Shaw
 Verónica Langer : Carmelita
 Sofía Sisniega : Mara
 Mariana Treviño : Jenny Quetzal (saison 2)
 Regina Orozco : la mère de Rosita (saison 2)
 Teresa Ruiz : Marilú (saison 2)
-Irving Peña : Poncho, le strip-teaser
-Invités
-Gloria Trevi : elle-même (saison 2)
+Irving Peña : Poncho, le strip-teaser</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>La_casa_de_las_flores</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_casa_de_las_flores</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Invités</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Gloria Trevi : elle-même (saison 2)
 Eduardo Casanova : le voisin de Paulina à Madrid (saison 2)
 Manolo Caro : présentateur télé (saison 2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>La_casa_de_las_flores</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/La_casa_de_las_flores</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Épisodes</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Saison 1
-Saison 2
-Saison 3</t>
         </is>
       </c>
     </row>
